--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2760223.029699463</v>
+        <v>2757678.437005179</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.964546393986</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>19.72734108435057</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X3" t="n">
-        <v>92.73964154763122</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>366.1290083420875</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>179.5392820644357</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425872</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074776</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>196.350676511508</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>2.934209813014038</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.85894767157184</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589133</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>72.8988957410125</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>116.3049281717276</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>312.2612463808223</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>122.2772862532271</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>113.5548005097679</v>
       </c>
     </row>
     <row r="10">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.2886548806406</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>142.7102789975409</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>146.053516066753</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.8624171433431</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268584</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268584</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389938</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426225</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433431</v>
+        <v>730.1757415093705</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433431</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433431</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433431</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433431</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433431</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433431</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264276</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264276</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264276</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099429</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="V3" t="n">
-        <v>298.0982375934582</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="W3" t="n">
-        <v>108.6784525769735</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.302975773765</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3404588333535</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0747602266031</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2865076283588</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226216</v>
+        <v>358.2773904637506</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675774</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017222</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746984</v>
+        <v>277.9807166746996</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603077</v>
+        <v>521.2049416030794</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709194</v>
+        <v>823.5081935709223</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582757</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079242</v>
+        <v>1416.413635079246</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332761</v>
+        <v>1621.822248332765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.902815837891</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837887</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837887</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837887</v>
+        <v>1491.859231677096</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837887</v>
+        <v>1491.859231677096</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837887</v>
+        <v>1491.859231677096</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.902815837887</v>
+        <v>1139.090576406982</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.902815837887</v>
+        <v>1139.090576406982</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.902815837887</v>
+        <v>1139.090576406982</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>428.3223248269013</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>428.3223248269013</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953283</v>
+        <v>428.3223248269013</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898728</v>
+        <v>269.0848698214457</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675774</v>
+        <v>269.0848698214457</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675774</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787555</v>
+        <v>61.66788464787578</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806073</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.8722171189996</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.6238185223527</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1401.100270703779</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1258.309378699375</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1062.768760419129</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906552</v>
+        <v>834.6536183746858</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906552</v>
+        <v>599.5015101429431</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>599.5015101429431</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>596.5376618469693</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>596.5376618469693</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="C7" t="n">
-        <v>332.5877893114866</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="D7" t="n">
-        <v>182.4711498991509</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574712</v>
+        <v>64.24066662574735</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.9680378347985</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195383</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934737</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400028</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400028</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400028</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400028</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.55805631675783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>789.5335540906474</v>
+        <v>727.9718500352692</v>
       </c>
       <c r="C8" t="n">
-        <v>420.5710371502357</v>
+        <v>727.9718500352692</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348519</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>362.7606506793152</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711877</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="U8" t="n">
-        <v>1826.151173794699</v>
+        <v>1840.806103630585</v>
       </c>
       <c r="V8" t="n">
-        <v>1495.088286451128</v>
+        <v>1840.806103630585</v>
       </c>
       <c r="W8" t="n">
-        <v>1179.672886066459</v>
+        <v>1488.037448360471</v>
       </c>
       <c r="X8" t="n">
-        <v>1179.672886066459</v>
+        <v>1114.571690099391</v>
       </c>
       <c r="Y8" t="n">
-        <v>789.5335540906474</v>
+        <v>1114.571690099391</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>804.6501442579348</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="C9" t="n">
-        <v>630.1971149768078</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="D9" t="n">
-        <v>481.2627053155565</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E9" t="n">
-        <v>322.025250310101</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333486</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="U9" t="n">
-        <v>1642.714636976691</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V9" t="n">
-        <v>1642.714636976691</v>
+        <v>937.3096188498821</v>
       </c>
       <c r="W9" t="n">
-        <v>1388.477280248489</v>
+        <v>683.0722621216805</v>
       </c>
       <c r="X9" t="n">
-        <v>1180.625780042957</v>
+        <v>475.2207619161477</v>
       </c>
       <c r="Y9" t="n">
-        <v>972.8654812780028</v>
+        <v>360.5189432194124</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.4220188783357</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>187.5209935053062</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>187.5209935053062</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809314</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5765,19 +5765,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,25 +5887,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745237</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194322</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26314,19 @@
         <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
@@ -26335,25 +26335,25 @@
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253134</v>
+        <v>270592.3620253141</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.054023192</v>
+        <v>115410.0540231921</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881988</v>
+        <v>62913.6376588202</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197475</v>
+        <v>27875.25362197461</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263457</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.583971892</v>
       </c>
       <c r="M4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="P4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16046.583971892</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936824</v>
+        <v>76435.73471936832</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.8076285549</v>
+        <v>-249519.8076285552</v>
       </c>
       <c r="C6" t="n">
-        <v>123726.9404670061</v>
+        <v>123726.9404670055</v>
       </c>
       <c r="D6" t="n">
-        <v>302547.334170072</v>
+        <v>302547.3341700723</v>
       </c>
       <c r="E6" t="n">
-        <v>-52716.37662580912</v>
+        <v>-52751.11455124377</v>
       </c>
       <c r="F6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.09302302</v>
       </c>
       <c r="G6" t="n">
-        <v>548726.8309484558</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="H6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="I6" t="n">
-        <v>548726.8309484558</v>
+        <v>548692.0930230202</v>
       </c>
       <c r="J6" t="n">
-        <v>499661.886219911</v>
+        <v>499627.1482944755</v>
       </c>
       <c r="K6" t="n">
-        <v>485813.1932896359</v>
+        <v>485778.4553641998</v>
       </c>
       <c r="L6" t="n">
-        <v>520851.5773264808</v>
+        <v>520816.8394010456</v>
       </c>
       <c r="M6" t="n">
-        <v>391580.4503968579</v>
+        <v>391545.7124714224</v>
       </c>
       <c r="N6" t="n">
-        <v>548726.8309484556</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="O6" t="n">
-        <v>548726.8309484558</v>
+        <v>548692.0930230202</v>
       </c>
       <c r="P6" t="n">
-        <v>548726.8309484557</v>
+        <v>548692.0930230203</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.8996292950631</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594717</v>
+        <v>431.9757039594729</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821578</v>
+        <v>210.4296883821582</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262176</v>
+        <v>94.81103524262187</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666913</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931516</v>
+        <v>244.450116793153</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666917</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666913</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>271.9658236782757</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139.0484721057025</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988673</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987103</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681185</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377109</v>
+        <v>38.33818124377089</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310543</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459977</v>
+        <v>86.52244598482488</v>
       </c>
       <c r="X3" t="n">
-        <v>113.0333436558463</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098432</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482799</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>16.47009429716256</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>16.60483332139307</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>227.3367636772757</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>92.85788772760019</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493751</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>55.34430664941158</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>202.8387753904634</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.387873427056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>30.2419391930403</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27825,10 +27825,10 @@
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>152.8107596480247</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>134.7661645223883</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>36.97972233659067</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>103.5432877148415</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>92.12789526753647</v>
       </c>
     </row>
     <row r="10">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.54332530129673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>109.4273643262871</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511786</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.703053396811</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610708</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.03437151915</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860972</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062496</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468674</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872496</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378894</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635582</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054722</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830812</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,13 +32318,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356905</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,10 +32795,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,19 +33497,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,19 +34448,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070471</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695383</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644798</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974632</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308277</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.466264043791</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872864</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501518</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.59399159230918</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.73343028761605</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.97578017569234</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235262</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558163</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
